--- a/results/24hr_ensembledLOO.xlsx
+++ b/results/24hr_ensembledLOO.xlsx
@@ -220,8 +220,8 @@
   </sheetPr>
   <dimension ref="A1:L226"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A194" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E227" activeCellId="0" sqref="E227"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E183" activeCellId="0" sqref="E183:E226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -230,9 +230,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="3.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="3.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="3.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="6.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.14"/>
